--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2432765.85003196</v>
+        <v>2432053.548208917</v>
       </c>
     </row>
     <row r="7">
@@ -1224,55 +1224,55 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.817899082923868</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="I9" t="n">
+      <c r="S9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="J9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240827</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929906</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.05671490006784</v>
+        <v>49.36873040538035</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.31761724675142</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958198</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>146.8587795251719</v>
       </c>
       <c r="Y11" t="n">
         <v>188.4979333192472</v>
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298148</v>
+        <v>9.369887371298091</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>96.25684999496674</v>
       </c>
       <c r="S12" t="n">
+        <v>13.44252716693648</v>
+      </c>
+      <c r="T12" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="T12" t="n">
-        <v>79.9451900607508</v>
-      </c>
       <c r="U12" t="n">
-        <v>59.07980534382084</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233447</v>
+        <v>62.50065676233442</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394382</v>
+        <v>88.55631942394376</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640283</v>
+        <v>39.16465028640278</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095784</v>
+        <v>45.23602198095779</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256634</v>
+        <v>25.28169700256629</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311279</v>
+        <v>57.28978021311273</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725524</v>
+        <v>45.61329429725518</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138213</v>
+        <v>66.96075103138207</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362676</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517476</v>
+        <v>43.7711912551747</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110065</v>
+        <v>38.99300866110059</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>172.057233228111</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>123.2311513016584</v>
+        <v>114.3554345392802</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929903</v>
+        <v>16.73328122929908</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675148</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00227733958198</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.36988737129812</v>
+        <v>9.369887371298148</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>124.2570535835882</v>
+        <v>13.44252716693654</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242248</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382081</v>
+        <v>59.07980534382084</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233444</v>
+        <v>146.5863780694884</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394379</v>
+        <v>88.55631942394382</v>
       </c>
       <c r="X15" t="n">
-        <v>39.1646502864028</v>
+        <v>39.16465028640283</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095782</v>
+        <v>45.23602198095784</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256631</v>
+        <v>25.28169700256635</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311279</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725524</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138213</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362676</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517473</v>
+        <v>43.77119125517476</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110065</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C17" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524205</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156616</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,25 +1965,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>53.76534124702275</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="U18" t="n">
-        <v>106.6843534095292</v>
-      </c>
-      <c r="V18" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>188.4979333192472</v>
@@ -2090,7 +2090,7 @@
         <v>74.03124113465174</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7515787130291</v>
+        <v>105.7515787130285</v>
       </c>
       <c r="G20" t="n">
         <v>121.3905020356641</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>36.18716192593549</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>188.4979333192472</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.7764185891743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>24.43972300435408</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>188.4979333192472</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="W24" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="X24" t="n">
-        <v>113.5538092836904</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538323</v>
+        <v>160.6024898538324</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571778</v>
+        <v>136.7207468571779</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9941615376351</v>
+        <v>157.9941615376352</v>
       </c>
       <c r="F26" t="n">
         <v>189.7144991160125</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3534224386475</v>
+        <v>205.3534224386476</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5366480845495</v>
+        <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147503</v>
+        <v>27.52501869147508</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444716</v>
+        <v>14.03224403444722</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818224</v>
+        <v>8.981130875818309</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864874</v>
+        <v>36.66579096864879</v>
       </c>
       <c r="V26" t="n">
-        <v>107.395033085151</v>
+        <v>107.3950330851511</v>
       </c>
       <c r="W26" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707051</v>
+        <v>146.2979637707052</v>
       </c>
       <c r="Y26" t="n">
         <v>168.8008168944489</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>11.73039443350221</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489262</v>
+        <v>1.48617308148932</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288759</v>
+        <v>23.74331897288765</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140123</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21983305301063</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>3.828163915469645</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.2207213635316</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217955</v>
+        <v>21.9532938421796</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632199</v>
+        <v>10.27680792632205</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1718064445646</v>
+        <v>75.17180644456465</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044889</v>
+        <v>31.62426466044894</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533431</v>
+        <v>76.82595656533437</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241512</v>
+        <v>8.434704884241569</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167402</v>
+        <v>3.656522290167459</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F29" t="n">
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147508</v>
+        <v>27.52501869147504</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444722</v>
+        <v>14.03224403444717</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818295</v>
+        <v>8.981130875818238</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864874</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
         <v>168.8008168944489</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>68.60138496442919</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489319</v>
+        <v>1.486173081489263</v>
       </c>
       <c r="U30" t="n">
-        <v>227.0645047263943</v>
+        <v>23.74331897288759</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.16417039140123</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301063</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469645</v>
+        <v>3.828163915469588</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217955</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632199</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456465</v>
+        <v>75.1718064445646</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044889</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533431</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241569</v>
+        <v>8.434704884241512</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167459</v>
+        <v>3.656522290167402</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461081</v>
+        <v>26.69730882461084</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758295</v>
+        <v>13.20453416758298</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954012</v>
+        <v>8.153421008954041</v>
       </c>
       <c r="U32" t="n">
         <v>35.83808110178452</v>
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>65.0427685577248</v>
       </c>
       <c r="F33" t="n">
-        <v>116.7389075619501</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,19 +3150,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250511</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602338</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V33" t="n">
         <v>26.33646052453702</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>31.20923710089045</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.16410009349637</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>260.4608093700286</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3585,22 +3585,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>11.29408204347195</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>26.70962085972388</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.14077227717371</v>
+        <v>9.140772277173706</v>
       </c>
       <c r="V41" t="n">
         <v>79.87001439367597</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>106.7909446893814</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>76.72643162335916</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153555</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>208.8080174884532</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153555</v>
+        <v>70.62775117087352</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="D8" t="n">
         <v>6.719070557086891</v>
@@ -4799,55 +4799,55 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="I8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="K8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L8" t="n">
-        <v>0.384556269860207</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M8" t="n">
-        <v>3.551813413473549</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="N8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="O8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="P8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="D9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="E9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="F9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="G9" t="n">
-        <v>9.950635850029798</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="H9" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J9" t="n">
         <v>0.2559399712010781</v>
@@ -4890,13 +4890,13 @@
         <v>6.590454258427762</v>
       </c>
       <c r="M9" t="n">
-        <v>6.590454258427762</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="N9" t="n">
-        <v>6.590454258427762</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="O9" t="n">
-        <v>9.629741416440567</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
@@ -4905,28 +4905,28 @@
         <v>12.79699856005391</v>
       </c>
       <c r="R9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="S9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="T9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="U9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V9" t="n">
-        <v>12.79699856005391</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="X9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.79699856005391</v>
+        <v>3.102302681225188</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>439.5571809656795</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C11" t="n">
-        <v>439.5571809656795</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D11" t="n">
-        <v>439.5571809656795</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E11" t="n">
-        <v>439.5571809656795</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F11" t="n">
-        <v>439.5571809656795</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G11" t="n">
-        <v>249.1552281179551</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554814</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I11" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J11" t="n">
         <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>267.8825731524727</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="L11" t="n">
-        <v>314.6034156332328</v>
+        <v>162.1536558828889</v>
       </c>
       <c r="M11" t="n">
-        <v>395.4653147201801</v>
+        <v>330.6251572712823</v>
       </c>
       <c r="N11" t="n">
-        <v>470.7932078558725</v>
+        <v>405.9530504069746</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485403</v>
+        <v>592.5660043930293</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324995</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049696</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="S11" t="n">
-        <v>702.688706883689</v>
+        <v>704.1243288271095</v>
       </c>
       <c r="T11" t="n">
-        <v>702.688706883689</v>
+        <v>659.3590588808958</v>
       </c>
       <c r="U11" t="n">
-        <v>629.959133813404</v>
+        <v>659.3590588808958</v>
       </c>
       <c r="V11" t="n">
-        <v>629.959133813404</v>
+        <v>515.1858069050531</v>
       </c>
       <c r="W11" t="n">
-        <v>629.959133813404</v>
+        <v>353.823989053842</v>
       </c>
       <c r="X11" t="n">
-        <v>629.959133813404</v>
+        <v>205.4817875132642</v>
       </c>
       <c r="Y11" t="n">
-        <v>439.5571809656795</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>185.324483602789</v>
+        <v>24.54436736382068</v>
       </c>
       <c r="C12" t="n">
-        <v>175.859950904508</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J12" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142009</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998545</v>
+        <v>538.6656803998544</v>
       </c>
       <c r="O12" t="n">
-        <v>670.366620018889</v>
+        <v>670.3666200188887</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9917332769888</v>
+        <v>656.7625918679313</v>
       </c>
       <c r="S12" t="n">
-        <v>563.5897804292644</v>
+        <v>643.1842815982985</v>
       </c>
       <c r="T12" t="n">
-        <v>482.8370631961827</v>
+        <v>452.7823287505742</v>
       </c>
       <c r="U12" t="n">
-        <v>423.1604921418182</v>
+        <v>262.3803759028497</v>
       </c>
       <c r="V12" t="n">
-        <v>360.0285156142077</v>
+        <v>199.2483993752392</v>
       </c>
       <c r="W12" t="n">
-        <v>270.5776879132543</v>
+        <v>109.7975716742859</v>
       </c>
       <c r="X12" t="n">
-        <v>231.017435098706</v>
+        <v>70.23731885973763</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.324483602789</v>
+        <v>24.54436736382068</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.60586471875851</v>
       </c>
       <c r="C13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.60586471875851</v>
       </c>
       <c r="D13" t="n">
-        <v>15.07983466553978</v>
+        <v>48.24182248209206</v>
       </c>
       <c r="E13" t="n">
-        <v>15.07983466553978</v>
+        <v>84.34922419352647</v>
       </c>
       <c r="F13" t="n">
-        <v>15.07983466553978</v>
+        <v>123.1783923088014</v>
       </c>
       <c r="G13" t="n">
-        <v>15.07983466553978</v>
+        <v>132.5314066424577</v>
       </c>
       <c r="H13" t="n">
-        <v>15.07983466553978</v>
+        <v>144.7320344758749</v>
       </c>
       <c r="I13" t="n">
-        <v>15.07983466553978</v>
+        <v>157.8943776001266</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07983466553978</v>
+        <v>215.2239476045839</v>
       </c>
       <c r="K13" t="n">
-        <v>15.07983466553978</v>
+        <v>257.7072091165371</v>
       </c>
       <c r="L13" t="n">
-        <v>15.07983466553978</v>
+        <v>402.2436925423772</v>
       </c>
       <c r="M13" t="n">
-        <v>166.4819194321724</v>
+        <v>402.2436925423772</v>
       </c>
       <c r="N13" t="n">
-        <v>262.9810061886396</v>
+        <v>402.2436925423772</v>
       </c>
       <c r="O13" t="n">
-        <v>402.2436925423777</v>
+        <v>402.2436925423772</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426684</v>
+        <v>520.7166611426679</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426684</v>
+        <v>520.7166611426679</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633085</v>
+        <v>495.1795934633081</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015784</v>
+        <v>437.311128601578</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578862</v>
+        <v>391.2370939578859</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604136</v>
+        <v>279.6125557604134</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064923</v>
+        <v>211.9754335064921</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117151</v>
+        <v>98.68003660117138</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099498</v>
+        <v>54.46671210099491</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>313.3509301501554</v>
+        <v>130.5903746042063</v>
       </c>
       <c r="C14" t="n">
-        <v>139.5557450712554</v>
+        <v>130.5903746042063</v>
       </c>
       <c r="D14" t="n">
-        <v>139.5557450712554</v>
+        <v>130.5903746042063</v>
       </c>
       <c r="E14" t="n">
-        <v>139.5557450712554</v>
+        <v>130.5903746042063</v>
       </c>
       <c r="F14" t="n">
-        <v>139.5557450712554</v>
+        <v>130.5903746042063</v>
       </c>
       <c r="G14" t="n">
         <v>15.07983466553977</v>
@@ -5279,22 +5279,22 @@
         <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>267.8825731524723</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="L14" t="n">
-        <v>314.6034156332325</v>
+        <v>162.1536558828888</v>
       </c>
       <c r="M14" t="n">
-        <v>395.4653147201798</v>
+        <v>243.0155549698361</v>
       </c>
       <c r="N14" t="n">
-        <v>470.7932078558721</v>
+        <v>318.4008885624854</v>
       </c>
       <c r="O14" t="n">
-        <v>505.0138425485399</v>
+        <v>505.0138425485401</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324992</v>
+        <v>666.4395714324993</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9917332769886</v>
@@ -5303,25 +5303,25 @@
         <v>737.0894290049694</v>
       </c>
       <c r="S14" t="n">
-        <v>687.2220245550902</v>
+        <v>737.0894290049694</v>
       </c>
       <c r="T14" t="n">
-        <v>687.2220245550902</v>
+        <v>692.3241590587555</v>
       </c>
       <c r="U14" t="n">
-        <v>687.2220245550902</v>
+        <v>619.5945859884707</v>
       </c>
       <c r="V14" t="n">
-        <v>687.2220245550902</v>
+        <v>475.421334012628</v>
       </c>
       <c r="W14" t="n">
-        <v>687.2220245550902</v>
+        <v>314.0595161614168</v>
       </c>
       <c r="X14" t="n">
-        <v>503.7528829978797</v>
+        <v>130.5903746042063</v>
       </c>
       <c r="Y14" t="n">
-        <v>503.7528829978797</v>
+        <v>130.5903746042063</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>293.7723728391398</v>
+        <v>24.54436736382073</v>
       </c>
       <c r="C15" t="n">
-        <v>284.3078401408589</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H15" t="n">
-        <v>123.5277239018906</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I15" t="n">
         <v>15.07983466553977</v>
@@ -5358,49 +5358,49 @@
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L15" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N15" t="n">
         <v>538.6656803998543</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P15" t="n">
         <v>753.9917332769886</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596542</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9917332769886</v>
+        <v>610.972282102</v>
       </c>
       <c r="S15" t="n">
-        <v>628.4795579400309</v>
+        <v>597.3939718323671</v>
       </c>
       <c r="T15" t="n">
-        <v>591.2849524325334</v>
+        <v>406.9920189846428</v>
       </c>
       <c r="U15" t="n">
-        <v>531.6083813781689</v>
+        <v>347.3154479302783</v>
       </c>
       <c r="V15" t="n">
-        <v>468.4764048505584</v>
+        <v>199.2483993752394</v>
       </c>
       <c r="W15" t="n">
-        <v>379.0255771496051</v>
+        <v>109.7975716742861</v>
       </c>
       <c r="X15" t="n">
-        <v>339.4653243350568</v>
+        <v>70.23731885973774</v>
       </c>
       <c r="Y15" t="n">
-        <v>293.7723728391398</v>
+        <v>24.54436736382073</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.60586471875848</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C16" t="n">
-        <v>15.60586471875848</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D16" t="n">
-        <v>15.60586471875848</v>
+        <v>47.71579242887326</v>
       </c>
       <c r="E16" t="n">
-        <v>15.60586471875848</v>
+        <v>47.71579242887326</v>
       </c>
       <c r="F16" t="n">
-        <v>15.60586471875848</v>
+        <v>47.71579242887326</v>
       </c>
       <c r="G16" t="n">
-        <v>15.60586471875848</v>
+        <v>57.06880676252941</v>
       </c>
       <c r="H16" t="n">
-        <v>15.60586471875848</v>
+        <v>69.26943459594659</v>
       </c>
       <c r="I16" t="n">
-        <v>15.60586471875848</v>
+        <v>69.26943459594659</v>
       </c>
       <c r="J16" t="n">
-        <v>15.60586471875848</v>
+        <v>69.26943459594659</v>
       </c>
       <c r="K16" t="n">
-        <v>15.60586471875848</v>
+        <v>69.26943459594659</v>
       </c>
       <c r="L16" t="n">
-        <v>160.1423481445985</v>
+        <v>213.8059180217866</v>
       </c>
       <c r="M16" t="n">
-        <v>160.1423481445985</v>
+        <v>213.8059180217866</v>
       </c>
       <c r="N16" t="n">
-        <v>320.1541738605471</v>
+        <v>331.0320093814455</v>
       </c>
       <c r="O16" t="n">
-        <v>459.4168602142852</v>
+        <v>470.2946957351836</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351834</v>
+        <v>470.2946957351836</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426684</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633085</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015782</v>
+        <v>437.3111286015784</v>
       </c>
       <c r="T16" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578862</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064922</v>
+        <v>211.9754335064923</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117149</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099494</v>
+        <v>54.46671210099497</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.392324296194</v>
+        <v>463.3923242961948</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040784</v>
+        <v>410.1015905040792</v>
       </c>
       <c r="D17" t="n">
         <v>369.3697837210057</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718625</v>
+        <v>294.5907522718626</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940553</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116217</v>
+        <v>65.15430707116208</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
@@ -5513,52 +5513,52 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J17" t="n">
-        <v>38.41954622895916</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K17" t="n">
-        <v>38.41954622895916</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L17" t="n">
-        <v>85.1403887097193</v>
+        <v>201.6927886515945</v>
       </c>
       <c r="M17" t="n">
-        <v>166.0022877966666</v>
+        <v>282.5546877385417</v>
       </c>
       <c r="N17" t="n">
-        <v>241.330180932359</v>
+        <v>357.8825808742341</v>
       </c>
       <c r="O17" t="n">
-        <v>275.5508156250268</v>
+        <v>392.1032155669018</v>
       </c>
       <c r="P17" t="n">
-        <v>275.5508156250268</v>
+        <v>578.7161695529564</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1637696110814</v>
+        <v>578.7161695529564</v>
       </c>
       <c r="R17" t="n">
-        <v>563.7042339002528</v>
+        <v>680.2566338421279</v>
       </c>
       <c r="S17" t="n">
-        <v>632.9356035051037</v>
+        <v>680.2566338421279</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369972</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="U17" t="n">
         <v>753.9917332769886</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879306</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235036</v>
+        <v>689.4655660235037</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530774</v>
+        <v>626.5008757530779</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122031</v>
+        <v>540.8060308122037</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68.0850572755424</v>
+        <v>175.859950904508</v>
       </c>
       <c r="C18" t="n">
-        <v>68.0850572755424</v>
+        <v>175.859950904508</v>
       </c>
       <c r="D18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I18" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142006</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097942</v>
@@ -5607,7 +5607,7 @@
         <v>538.6656803998543</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P18" t="n">
         <v>753.9917332769886</v>
@@ -5616,28 +5616,28 @@
         <v>747.0528889596542</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0528889596542</v>
+        <v>610.972282102</v>
       </c>
       <c r="S18" t="n">
-        <v>747.0528889596542</v>
+        <v>610.972282102</v>
       </c>
       <c r="T18" t="n">
-        <v>556.6509361119298</v>
+        <v>610.972282102</v>
       </c>
       <c r="U18" t="n">
-        <v>448.8889629709912</v>
+        <v>556.6638565999568</v>
       </c>
       <c r="V18" t="n">
-        <v>258.4870101232668</v>
+        <v>556.6638565999568</v>
       </c>
       <c r="W18" t="n">
-        <v>258.4870101232668</v>
+        <v>366.2619037522325</v>
       </c>
       <c r="X18" t="n">
-        <v>68.0850572755424</v>
+        <v>175.859950904508</v>
       </c>
       <c r="Y18" t="n">
-        <v>68.0850572755424</v>
+        <v>175.859950904508</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961946</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040792</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210053</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718619</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940553</v>
       </c>
       <c r="G20" t="n">
         <v>65.15430707116214</v>
@@ -5750,37 +5750,37 @@
         <v>15.07983466553977</v>
       </c>
       <c r="J20" t="n">
+        <v>15.07983466553977</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15.07983466553977</v>
+      </c>
+      <c r="L20" t="n">
         <v>201.6927886515945</v>
       </c>
-      <c r="K20" t="n">
-        <v>326.5729645041852</v>
-      </c>
-      <c r="L20" t="n">
-        <v>373.2938069849453</v>
-      </c>
       <c r="M20" t="n">
-        <v>454.1557060718926</v>
+        <v>288.1543390723504</v>
       </c>
       <c r="N20" t="n">
-        <v>529.483599207585</v>
+        <v>474.7672930584051</v>
       </c>
       <c r="O20" t="n">
-        <v>563.7042339002528</v>
+        <v>508.9879277510728</v>
       </c>
       <c r="P20" t="n">
-        <v>563.7042339002528</v>
+        <v>508.9879277510728</v>
       </c>
       <c r="Q20" t="n">
-        <v>563.7042339002528</v>
+        <v>508.9879277510728</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002528</v>
+        <v>610.5283920402442</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051037</v>
+        <v>679.7597616450951</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369972</v>
+        <v>753.9917332769886</v>
       </c>
       <c r="U20" t="n">
         <v>753.9917332769886</v>
@@ -5789,13 +5789,13 @@
         <v>730.3229325879304</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235037</v>
+        <v>689.4655660235036</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530777</v>
+        <v>626.5008757530774</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>51.63252347961603</v>
+      </c>
+      <c r="C21" t="n">
+        <v>51.63252347961603</v>
+      </c>
+      <c r="D21" t="n">
+        <v>51.63252347961603</v>
+      </c>
+      <c r="E21" t="n">
+        <v>51.63252347961603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>51.63252347961603</v>
+      </c>
+      <c r="G21" t="n">
+        <v>51.63252347961603</v>
+      </c>
+      <c r="H21" t="n">
+        <v>51.63252347961603</v>
+      </c>
+      <c r="I21" t="n">
+        <v>51.63252347961603</v>
+      </c>
+      <c r="J21" t="n">
         <v>15.07983466553977</v>
       </c>
-      <c r="C21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="D21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="F21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="G21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="H21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15.07983466553977</v>
-      </c>
-      <c r="J21" t="n">
-        <v>15.07983466553968</v>
-      </c>
       <c r="K21" t="n">
-        <v>53.04316068142006</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097942</v>
@@ -5844,37 +5844,37 @@
         <v>538.6656803998543</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.9917332769886</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="R21" t="n">
-        <v>753.9917332769886</v>
+        <v>610.9722821019999</v>
       </c>
       <c r="S21" t="n">
-        <v>753.9917332769886</v>
+        <v>610.9722821019999</v>
       </c>
       <c r="T21" t="n">
-        <v>753.9917332769886</v>
+        <v>610.9722821019999</v>
       </c>
       <c r="U21" t="n">
-        <v>563.5897804292642</v>
+        <v>610.9722821019999</v>
       </c>
       <c r="V21" t="n">
-        <v>373.1878275815399</v>
+        <v>420.5703292542755</v>
       </c>
       <c r="W21" t="n">
-        <v>373.1878275815399</v>
+        <v>420.5703292542755</v>
       </c>
       <c r="X21" t="n">
-        <v>373.1878275815399</v>
+        <v>230.1683764065511</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.6156875924749</v>
+        <v>230.1683764065511</v>
       </c>
     </row>
     <row r="22">
@@ -5984,31 +5984,31 @@
         <v>15.07983466553977</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07983466553977</v>
+        <v>70.95335735993305</v>
       </c>
       <c r="J23" t="n">
-        <v>15.07983466553977</v>
+        <v>70.95335735993305</v>
       </c>
       <c r="K23" t="n">
-        <v>15.07983466553977</v>
+        <v>70.95335735993305</v>
       </c>
       <c r="L23" t="n">
-        <v>61.80067714629991</v>
+        <v>257.5663113459877</v>
       </c>
       <c r="M23" t="n">
-        <v>142.6625762332472</v>
+        <v>338.428210432935</v>
       </c>
       <c r="N23" t="n">
-        <v>217.9904693689396</v>
+        <v>525.0411644189896</v>
       </c>
       <c r="O23" t="n">
-        <v>252.2111040616073</v>
+        <v>559.2617991116574</v>
       </c>
       <c r="P23" t="n">
-        <v>419.0141568617712</v>
+        <v>707.1675751369972</v>
       </c>
       <c r="Q23" t="n">
-        <v>605.6271108478259</v>
+        <v>707.1675751369972</v>
       </c>
       <c r="R23" t="n">
         <v>707.1675751369972</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J24" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142013</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137997</v>
+        <v>352.0527264137996</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998543</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188889</v>
+        <v>670.3666200188886</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769887</v>
+        <v>753.9917332769885</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.9917332769887</v>
+        <v>747.0528889596541</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9917332769887</v>
+        <v>610.9722821019999</v>
       </c>
       <c r="S24" t="n">
-        <v>753.9917332769887</v>
+        <v>420.5703292542755</v>
       </c>
       <c r="T24" t="n">
-        <v>753.9917332769887</v>
+        <v>420.5703292542755</v>
       </c>
       <c r="U24" t="n">
-        <v>563.5897804292644</v>
+        <v>230.1683764065511</v>
       </c>
       <c r="V24" t="n">
-        <v>373.18782758154</v>
+        <v>230.1683764065511</v>
       </c>
       <c r="W24" t="n">
-        <v>182.7858747338156</v>
+        <v>230.1683764065511</v>
       </c>
       <c r="X24" t="n">
-        <v>68.0850572755424</v>
+        <v>39.76642355882672</v>
       </c>
       <c r="Y24" t="n">
-        <v>68.0850572755424</v>
+        <v>39.76642355882672</v>
       </c>
     </row>
     <row r="25">
@@ -6203,52 +6203,52 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874109</v>
+        <v>882.7966579874113</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942529</v>
+        <v>757.2538204942534</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350255</v>
+        <v>597.6637583350259</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471341</v>
+        <v>406.0329511471343</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6052517141568</v>
+        <v>198.605251714157</v>
       </c>
       <c r="H26" t="n">
-        <v>63.7197485984502</v>
+        <v>63.71974859845022</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J26" t="n">
-        <v>171.252799658955</v>
+        <v>171.2527996589548</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528781</v>
+        <v>375.9427824528777</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523995</v>
+        <v>634.0135279523988</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581078</v>
+        <v>926.225330058107</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.903126212561</v>
+        <v>1212.90312621256</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315173</v>
+        <v>1654.882514315172</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666886</v>
+        <v>1777.417797666885</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.834970757104</v>
+        <v>1795.834970757103</v>
       </c>
       <c r="S26" t="n">
         <v>1781.660986883924</v>
@@ -6257,19 +6257,19 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
         <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="C27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="D27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102246</v>
+        <v>73.88002543102242</v>
       </c>
       <c r="L27" t="n">
-        <v>191.2129445593966</v>
+        <v>191.2129445593965</v>
       </c>
       <c r="M27" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634019</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741612</v>
+        <v>577.794567574161</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931954</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512955</v>
+        <v>781.2717371851314</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512955</v>
+        <v>587.7456853467432</v>
       </c>
       <c r="T27" t="n">
-        <v>791.6194355204983</v>
+        <v>586.2445004159459</v>
       </c>
       <c r="U27" t="n">
-        <v>767.6362850428341</v>
+        <v>562.2613499382817</v>
       </c>
       <c r="V27" t="n">
-        <v>740.1977290919237</v>
+        <v>319.1816318419158</v>
       </c>
       <c r="W27" t="n">
-        <v>470.7991598222151</v>
+        <v>265.4242247176626</v>
       </c>
       <c r="X27" t="n">
-        <v>251.2911654389114</v>
+        <v>261.5573924798144</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="C28" t="n">
-        <v>82.47399327165047</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="D28" t="n">
-        <v>150.0930725422079</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="E28" t="n">
-        <v>221.1835957608662</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="F28" t="n">
-        <v>266.162514176009</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="G28" t="n">
-        <v>266.162514176009</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="H28" t="n">
-        <v>266.162514176009</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="I28" t="n">
-        <v>266.162514176009</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="J28" t="n">
-        <v>266.162514176009</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="K28" t="n">
-        <v>266.162514176009</v>
+        <v>35.91669941514206</v>
       </c>
       <c r="L28" t="n">
-        <v>266.162514176009</v>
+        <v>215.4363043482059</v>
       </c>
       <c r="M28" t="n">
-        <v>266.162514176009</v>
+        <v>215.4363043482059</v>
       </c>
       <c r="N28" t="n">
-        <v>266.162514176009</v>
+        <v>215.4363043482059</v>
       </c>
       <c r="O28" t="n">
-        <v>266.162514176009</v>
+        <v>215.4363043482059</v>
       </c>
       <c r="P28" t="n">
-        <v>266.162514176009</v>
+        <v>215.4363043482059</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760094</v>
       </c>
       <c r="R28" t="n">
-        <v>266.162514176009</v>
+        <v>266.1625141760094</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909792</v>
+        <v>243.9874698909795</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239872</v>
+        <v>233.6068558239875</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032149</v>
+        <v>157.6757382032151</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259938</v>
+        <v>125.732036525994</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737331</v>
+        <v>48.1300601973734</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389703</v>
+        <v>39.61015627389707</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514208</v>
+        <v>35.91669941514206</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874109</v>
+        <v>882.7966579874114</v>
       </c>
       <c r="D29" t="n">
-        <v>757.253820494253</v>
+        <v>757.2538204942535</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350255</v>
+        <v>597.6637583350262</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471341</v>
+        <v>406.0329511471348</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141568</v>
+        <v>198.6052517141575</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845024</v>
+        <v>63.7197485984502</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514207</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K29" t="n">
         <v>375.942782452878</v>
@@ -6470,16 +6470,16 @@
         <v>634.013527952399</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581073</v>
+        <v>926.2253300581074</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q29" t="n">
         <v>1777.417797666886</v>
@@ -6494,7 +6494,7 @@
         <v>1772.589137514411</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V29" t="n">
         <v>1627.073153621684</v>
@@ -6503,10 +6503,10 @@
         <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="30">
@@ -6543,49 +6543,49 @@
         <v>35.91669941514207</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102246</v>
+        <v>73.88002543102243</v>
       </c>
       <c r="L30" t="n">
-        <v>191.2129445593966</v>
+        <v>191.2129445593965</v>
       </c>
       <c r="M30" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634019</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741612</v>
+        <v>577.7945675741611</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931956</v>
+        <v>709.4955071931954</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512955</v>
+        <v>793.1206204512953</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512955</v>
+        <v>657.0400135936411</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512955</v>
+        <v>657.0400135936411</v>
       </c>
       <c r="T30" t="n">
-        <v>791.6194355204982</v>
+        <v>655.5388286628439</v>
       </c>
       <c r="U30" t="n">
-        <v>562.2613499382817</v>
+        <v>631.5556781851797</v>
       </c>
       <c r="V30" t="n">
-        <v>319.1816318419158</v>
+        <v>604.1171222342693</v>
       </c>
       <c r="W30" t="n">
-        <v>265.4242247176626</v>
+        <v>334.7185529645607</v>
       </c>
       <c r="X30" t="n">
-        <v>261.5573924798144</v>
+        <v>330.8517207267126</v>
       </c>
       <c r="Y30" t="n">
-        <v>35.91669941514207</v>
+        <v>105.2110276620402</v>
       </c>
     </row>
     <row r="31">
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J31" t="n">
-        <v>71.42585097558461</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K31" t="n">
-        <v>112.7064240684948</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="L31" t="n">
-        <v>112.7064240684948</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="M31" t="n">
-        <v>112.7064240684948</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="N31" t="n">
-        <v>112.7064240684948</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="O31" t="n">
-        <v>112.7064240684948</v>
+        <v>112.7064240684944</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.162514176009</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.162514176009</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760094</v>
+        <v>266.162514176009</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909792</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239872</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032151</v>
+        <v>157.6757382032149</v>
       </c>
       <c r="V31" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259938</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737341</v>
+        <v>48.1300601973733</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389708</v>
+        <v>39.61015627389702</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91669941514207</v>
@@ -6677,46 +6677,46 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806685</v>
+        <v>877.5242945806682</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601007</v>
+        <v>752.8175276601004</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734634</v>
+        <v>594.0635360734631</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581621</v>
+        <v>403.2687994581618</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977749</v>
+        <v>196.6771705977753</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465899</v>
+        <v>62.62773805465902</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8162924559495</v>
+        <v>171.8162924559494</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180681</v>
+        <v>377.325708018068</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857848</v>
+        <v>636.2158862857846</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596887</v>
+        <v>929.2471211596883</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579725</v>
+        <v>1216.744350082337</v>
       </c>
       <c r="O32" t="n">
-        <v>1443.218367059349</v>
+        <v>1463.134320561961</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218727</v>
+        <v>1660.36260372134</v>
       </c>
       <c r="Q32" t="n">
         <v>1763.801366338636</v>
@@ -6734,16 +6734,16 @@
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.620437351991</v>
+        <v>1617.62043735199</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.78811065007</v>
+        <v>1492.788110650069</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.84846024215</v>
+        <v>1345.848460242149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163782</v>
+        <v>1176.178655163781</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>677.3344422749453</v>
+        <v>101.360525663865</v>
       </c>
       <c r="C33" t="n">
-        <v>487.922168007909</v>
+        <v>101.360525663865</v>
       </c>
       <c r="D33" t="n">
-        <v>327.1420517689407</v>
+        <v>101.360525663865</v>
       </c>
       <c r="E33" t="n">
-        <v>153.5788478903552</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F33" t="n">
         <v>35.660759443941</v>
@@ -6780,49 +6780,49 @@
         <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982137</v>
+        <v>73.62408545982132</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9570045881955</v>
+        <v>190.9570045881954</v>
       </c>
       <c r="M33" t="n">
-        <v>372.6336511922009</v>
+        <v>372.6336511922007</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5386276029601</v>
+        <v>577.5386276029599</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219945</v>
+        <v>709.2395672219942</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800944</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800944</v>
+        <v>785.9258361627597</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800944</v>
+        <v>649.8452293051055</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800944</v>
+        <v>649.8452293051055</v>
       </c>
       <c r="T33" t="n">
-        <v>792.1995661218873</v>
+        <v>432.7028822288527</v>
       </c>
       <c r="U33" t="n">
-        <v>769.0524862168131</v>
+        <v>193.0785696057328</v>
       </c>
       <c r="V33" t="n">
-        <v>742.4500008384929</v>
+        <v>166.4760842274126</v>
       </c>
       <c r="W33" t="n">
-        <v>689.5286642868299</v>
+        <v>113.5547476757496</v>
       </c>
       <c r="X33" t="n">
-        <v>686.4979026215719</v>
+        <v>110.5239860104917</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.3344422749453</v>
+        <v>101.360525663865</v>
       </c>
     </row>
     <row r="34">
@@ -6835,37 +6835,37 @@
         <v>35.660759443941</v>
       </c>
       <c r="C34" t="n">
-        <v>35.660759443941</v>
+        <v>79.71504249541769</v>
       </c>
       <c r="D34" t="n">
-        <v>35.660759443941</v>
+        <v>79.71504249541769</v>
       </c>
       <c r="E34" t="n">
-        <v>35.660759443941</v>
+        <v>79.71504249541769</v>
       </c>
       <c r="F34" t="n">
-        <v>35.660759443941</v>
+        <v>79.71504249541769</v>
       </c>
       <c r="G34" t="n">
-        <v>35.660759443941</v>
+        <v>79.71504249541769</v>
       </c>
       <c r="H34" t="n">
-        <v>35.660759443941</v>
+        <v>79.71504249541769</v>
       </c>
       <c r="I34" t="n">
-        <v>35.660759443941</v>
+        <v>79.71504249541769</v>
       </c>
       <c r="J34" t="n">
-        <v>35.660759443941</v>
+        <v>79.71504249541769</v>
       </c>
       <c r="K34" t="n">
-        <v>181.4704148930995</v>
+        <v>79.71504249541769</v>
       </c>
       <c r="L34" t="n">
-        <v>181.4704148930995</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="M34" t="n">
-        <v>181.4704148930995</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="N34" t="n">
         <v>260.0540801966771</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361092</v>
+        <v>623.0190675361097</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513515</v>
+        <v>544.083381551352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756359</v>
+        <v>477.7066225756364</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338506</v>
+        <v>377.2826389338511</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J35" t="n">
-        <v>214.1616385483602</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K35" t="n">
-        <v>214.1616385483602</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="L35" t="n">
-        <v>260.8824810291204</v>
+        <v>278.6930660259308</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7443801160676</v>
+        <v>536.5492673022593</v>
       </c>
       <c r="N35" t="n">
-        <v>417.0722732517601</v>
+        <v>611.8771604379516</v>
       </c>
       <c r="O35" t="n">
-        <v>617.8457609400962</v>
+        <v>646.0977951306193</v>
       </c>
       <c r="P35" t="n">
-        <v>872.2432848862244</v>
+        <v>850.5537443902422</v>
       </c>
       <c r="Q35" t="n">
-        <v>872.2432848862244</v>
+        <v>850.5537443902422</v>
       </c>
       <c r="R35" t="n">
-        <v>948.6491315313873</v>
+        <v>926.959591035405</v>
       </c>
       <c r="S35" t="n">
-        <v>992.7458834922296</v>
+        <v>971.0563429962473</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U35" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984138</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413449</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782768</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447604</v>
+        <v>726.0777262447608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>52.36134666969366</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548268</v>
+        <v>58.80019076548263</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1331098938568</v>
+        <v>176.1331098938567</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978623</v>
+        <v>357.8097564978621</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086215</v>
+        <v>562.7147329086212</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276559</v>
+        <v>694.4156725276555</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857558</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="Q36" t="n">
-        <v>778.0407857857558</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="R36" t="n">
-        <v>778.0407857857558</v>
+        <v>697.0669473074762</v>
       </c>
       <c r="S36" t="n">
-        <v>778.0407857857558</v>
+        <v>503.540895469088</v>
       </c>
       <c r="T36" t="n">
-        <v>778.0407857857558</v>
+        <v>503.540895469088</v>
       </c>
       <c r="U36" t="n">
-        <v>778.0407857857558</v>
+        <v>263.9165828459682</v>
       </c>
       <c r="V36" t="n">
-        <v>534.9610676893899</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="W36" t="n">
-        <v>271.8693410529973</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X36" t="n">
-        <v>52.36134666969366</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y36" t="n">
-        <v>52.36134666969366</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="K37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="L37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="M37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="38">
@@ -7169,40 +7169,40 @@
         <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998704</v>
+        <v>51.57576979998701</v>
       </c>
       <c r="J38" t="n">
-        <v>244.900543598745</v>
+        <v>244.9005435987449</v>
       </c>
       <c r="K38" t="n">
-        <v>262.7732386971875</v>
+        <v>244.9005435987449</v>
       </c>
       <c r="L38" t="n">
-        <v>520.6294399735159</v>
+        <v>291.6213860795049</v>
       </c>
       <c r="M38" t="n">
-        <v>601.4913390604632</v>
+        <v>372.4832851664521</v>
       </c>
       <c r="N38" t="n">
-        <v>676.8192321961557</v>
+        <v>630.3394864427805</v>
       </c>
       <c r="O38" t="n">
-        <v>711.0398668888234</v>
+        <v>664.5601211354482</v>
       </c>
       <c r="P38" t="n">
-        <v>965.4373908349517</v>
+        <v>899.6510983781267</v>
       </c>
       <c r="Q38" t="n">
-        <v>965.4373908349517</v>
+        <v>899.6510983781267</v>
       </c>
       <c r="R38" t="n">
-        <v>1041.843237480115</v>
+        <v>976.0569450232895</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>751.0613707759337</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="C39" t="n">
-        <v>751.0613707759337</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="D39" t="n">
-        <v>590.2812545369654</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="E39" t="n">
-        <v>416.7180506583799</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="F39" t="n">
-        <v>256.290334375624</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G39" t="n">
-        <v>256.290334375624</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H39" t="n">
-        <v>129.2847539859532</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I39" t="n">
         <v>20.83686474960229</v>
@@ -7254,49 +7254,49 @@
         <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548268</v>
+        <v>58.80019076548262</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1331098938568</v>
+        <v>176.1331098938567</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978623</v>
+        <v>357.8097564978621</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086215</v>
+        <v>562.7147329086212</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276559</v>
+        <v>694.4156725276555</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857558</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857558</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="R39" t="n">
-        <v>778.0407857857558</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="S39" t="n">
-        <v>778.0407857857558</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="T39" t="n">
-        <v>778.0407857857558</v>
+        <v>766.6326221054807</v>
       </c>
       <c r="U39" t="n">
-        <v>778.0407857857558</v>
+        <v>527.0083094823608</v>
       </c>
       <c r="V39" t="n">
-        <v>778.0407857857558</v>
+        <v>283.9285913859949</v>
       </c>
       <c r="W39" t="n">
-        <v>751.0613707759337</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="X39" t="n">
-        <v>751.0613707759337</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="Y39" t="n">
-        <v>751.0613707759337</v>
+        <v>20.83686474960229</v>
       </c>
     </row>
     <row r="40">
@@ -7324,13 +7324,13 @@
         <v>20.83686474960229</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="K40" t="n">
         <v>56.03780166411086</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4263542753165</v>
+        <v>818.4263542753163</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564248</v>
+        <v>708.1276389564246</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465751</v>
+        <v>610.3878506465749</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706557</v>
+        <v>478.6008376706554</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7730796660724</v>
+        <v>314.7730796660722</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
@@ -7409,22 +7409,22 @@
         <v>28.06597548400536</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6518442323786</v>
+        <v>190.6518442323785</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308619</v>
+        <v>190.6518442323785</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9121095349434</v>
+        <v>237.3726867131385</v>
       </c>
       <c r="M41" t="n">
-        <v>788.7740086218907</v>
+        <v>365.7239951305128</v>
       </c>
       <c r="N41" t="n">
-        <v>864.1019017575832</v>
+        <v>679.6515597895263</v>
       </c>
       <c r="O41" t="n">
-        <v>1136.922207973572</v>
+        <v>952.4718660055153</v>
       </c>
       <c r="P41" t="n">
         <v>1176.130484901259</v>
@@ -7442,7 +7442,7 @@
         <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.065670889992</v>
+        <v>1394.065670889991</v>
       </c>
       <c r="V41" t="n">
         <v>1313.388888674157</v>
@@ -7454,7 +7454,7 @@
         <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181016</v>
+        <v>952.8480423181014</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>296.3633328671466</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C42" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D42" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E42" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F42" t="n">
         <v>28.06597548400536</v>
@@ -7491,49 +7491,49 @@
         <v>28.06597548400536</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988575</v>
+        <v>66.02930149988569</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3622206282599</v>
+        <v>183.3622206282597</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322653</v>
+        <v>365.0388672322651</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430246</v>
+        <v>569.9438436430243</v>
       </c>
       <c r="O42" t="n">
-        <v>701.644783262059</v>
+        <v>701.6447832620586</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201589</v>
+        <v>785.2698965201585</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2698965201589</v>
+        <v>785.2698965201585</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2698965201589</v>
+        <v>785.2698965201585</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2698965201589</v>
+        <v>591.7438446817703</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2698965201589</v>
+        <v>374.6014976055175</v>
       </c>
       <c r="U42" t="n">
-        <v>785.2698965201589</v>
+        <v>297.1000515213163</v>
       </c>
       <c r="V42" t="n">
-        <v>785.2698965201589</v>
+        <v>54.02033342495036</v>
       </c>
       <c r="W42" t="n">
-        <v>515.8713272504502</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="X42" t="n">
-        <v>296.3633328671466</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Y42" t="n">
-        <v>296.3633328671466</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="43">
@@ -7555,40 +7555,40 @@
         <v>28.06597548400536</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400536</v>
+        <v>92.92961358145146</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400536</v>
+        <v>92.92961358145146</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400536</v>
+        <v>92.92961358145146</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06597548400536</v>
+        <v>92.92961358145146</v>
       </c>
       <c r="J43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145146</v>
       </c>
       <c r="K43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145146</v>
       </c>
       <c r="L43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145146</v>
       </c>
       <c r="M43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145146</v>
       </c>
       <c r="N43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145146</v>
       </c>
       <c r="O43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145146</v>
       </c>
       <c r="P43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145146</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.133623560695</v>
+        <v>92.92961358145146</v>
       </c>
       <c r="R43" t="n">
         <v>130.133623560695</v>
@@ -7600,10 +7600,10 @@
         <v>130.133623560695</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00555512323078</v>
+        <v>82.00555512323076</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86490262931778</v>
+        <v>77.86490262931777</v>
       </c>
       <c r="W43" t="n">
         <v>28.06597548400536</v>
@@ -7631,10 +7631,10 @@
         <v>610.3878506465751</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706555</v>
+        <v>478.6008376706554</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660722</v>
+        <v>314.7730796660721</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
@@ -7646,34 +7646,34 @@
         <v>28.06597548400536</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6518442323786</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="K44" t="n">
-        <v>422.5915955308619</v>
+        <v>260.0057267824886</v>
       </c>
       <c r="L44" t="n">
-        <v>469.3124380116221</v>
+        <v>306.7265692632487</v>
       </c>
       <c r="M44" t="n">
-        <v>550.1743370985694</v>
+        <v>626.1881398735172</v>
       </c>
       <c r="N44" t="n">
-        <v>864.1019017575831</v>
+        <v>847.7950605833</v>
       </c>
       <c r="O44" t="n">
-        <v>1136.922207973572</v>
+        <v>1120.615366799289</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.130484901259</v>
+        <v>1344.273985695032</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757532</v>
+        <v>1344.273985695032</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.58247835231</v>
+        <v>1389.94092728981</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.940325262768</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="T44" t="n">
         <v>1403.298774200268</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="C45" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="D45" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="E45" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="F45" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="G45" t="n">
-        <v>155.0715558736762</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="H45" t="n">
         <v>28.06597548400536</v>
@@ -7728,49 +7728,49 @@
         <v>28.06597548400536</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988575</v>
+        <v>66.02930149988569</v>
       </c>
       <c r="L45" t="n">
-        <v>183.3622206282599</v>
+        <v>183.3622206282598</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322653</v>
+        <v>365.0388672322651</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430246</v>
+        <v>569.9438436430244</v>
       </c>
       <c r="O45" t="n">
-        <v>701.644783262059</v>
+        <v>701.6447832620587</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201589</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201589</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201589</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201589</v>
+        <v>785.2698965201586</v>
       </c>
       <c r="T45" t="n">
-        <v>574.3527071378829</v>
+        <v>568.1275494439058</v>
       </c>
       <c r="U45" t="n">
-        <v>574.3527071378829</v>
+        <v>568.1275494439058</v>
       </c>
       <c r="V45" t="n">
-        <v>331.272989041517</v>
+        <v>325.0478313475398</v>
       </c>
       <c r="W45" t="n">
-        <v>305.318631100572</v>
+        <v>253.7066685486777</v>
       </c>
       <c r="X45" t="n">
-        <v>305.318631100572</v>
+        <v>253.7066685486777</v>
       </c>
       <c r="Y45" t="n">
-        <v>305.318631100572</v>
+        <v>28.06597548400536</v>
       </c>
     </row>
     <row r="46">
@@ -7807,40 +7807,40 @@
         <v>28.06597548400536</v>
       </c>
       <c r="K46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="L46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="M46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="N46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="O46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400536</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.133623560695</v>
+        <v>75.85388492394996</v>
       </c>
       <c r="R46" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="S46" t="n">
-        <v>130.133623560695</v>
+        <v>113.0578949031935</v>
       </c>
       <c r="T46" t="n">
         <v>130.133623560695</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00555512323078</v>
+        <v>82.00555512323076</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86490262931778</v>
+        <v>77.86490262931777</v>
       </c>
       <c r="W46" t="n">
         <v>28.06597548400536</v>
@@ -8538,7 +8538,7 @@
         <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
         <v>160.2368887416667</v>
@@ -8547,7 +8547,7 @@
         <v>177.037405250518</v>
       </c>
       <c r="P9" t="n">
-        <v>166.6480266854964</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9015,13 +9015,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466381</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786794</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,7 +9243,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9258,7 +9258,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>206.3638740786794</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247656</v>
+        <v>195.9389762247655</v>
       </c>
       <c r="C11" t="n">
         <v>172.057233228111</v>
@@ -23264,19 +23264,19 @@
         <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085684</v>
+        <v>193.3306479085683</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869457</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033356</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240823</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23303,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.73328122929902</v>
       </c>
       <c r="S11" t="n">
-        <v>15.31201550531257</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675148</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958192</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416384</v>
+        <v>34.77567061646641</v>
       </c>
       <c r="Y11" t="n">
         <v>15.63936994613491</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.441042905518373</v>
+        <v>195.9389762247656</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
         <v>159.6238954891595</v>
@@ -23507,13 +23507,13 @@
         <v>225.0509854869457</v>
       </c>
       <c r="G14" t="n">
-        <v>117.4587575079223</v>
+        <v>126.3344742703006</v>
       </c>
       <c r="H14" t="n">
         <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240824</v>
+        <v>62.86150506240828</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.3687304053804</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675145</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958195</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726991</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>705385.146556152</v>
+        <v>705385.1465561519</v>
       </c>
     </row>
     <row r="7">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>771690.4957794016</v>
+      </c>
+      <c r="C2" t="n">
         <v>771690.4957794021</v>
       </c>
-      <c r="C2" t="n">
-        <v>771690.4957794022</v>
-      </c>
       <c r="D2" t="n">
-        <v>772136.1512542561</v>
+        <v>772136.151254256</v>
       </c>
       <c r="E2" t="n">
-        <v>664768.5001554913</v>
+        <v>664768.5001554927</v>
       </c>
       <c r="F2" t="n">
-        <v>664768.5001554912</v>
+        <v>664768.5001554914</v>
       </c>
       <c r="G2" t="n">
-        <v>773253.7302512183</v>
+        <v>773253.730251218</v>
       </c>
       <c r="H2" t="n">
-        <v>773253.7302512182</v>
+        <v>773253.7302512181</v>
       </c>
       <c r="I2" t="n">
-        <v>773253.730251218</v>
+        <v>773253.7302512181</v>
       </c>
       <c r="J2" t="n">
+        <v>773253.7302512185</v>
+      </c>
+      <c r="K2" t="n">
+        <v>773253.7302512195</v>
+      </c>
+      <c r="L2" t="n">
         <v>773253.7302512192</v>
       </c>
-      <c r="K2" t="n">
-        <v>773253.7302512183</v>
-      </c>
-      <c r="L2" t="n">
-        <v>773253.7302512194</v>
-      </c>
       <c r="M2" t="n">
-        <v>773253.7302512183</v>
+        <v>773253.7302512185</v>
       </c>
       <c r="N2" t="n">
-        <v>773253.7302512181</v>
+        <v>773253.7302512185</v>
       </c>
       <c r="O2" t="n">
-        <v>773253.7302512184</v>
+        <v>773253.7302512185</v>
       </c>
       <c r="P2" t="n">
         <v>773253.7302512185</v>
@@ -26372,13 +26372,13 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787142</v>
+        <v>279126.1151787141</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913329</v>
+        <v>95439.52541913337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.6933126247</v>
+        <v>96101.69331262473</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.3662923228</v>
+        <v>46197.36629232275</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924377</v>
+        <v>72254.91485924376</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,7 +26442,7 @@
         <v>379258.4930688672</v>
       </c>
       <c r="K4" t="n">
-        <v>379258.4930688671</v>
+        <v>379258.4930688672</v>
       </c>
       <c r="L4" t="n">
         <v>379243.7031014886</v>
@@ -26451,13 +26451,13 @@
         <v>378433.7657281701</v>
       </c>
       <c r="N4" t="n">
-        <v>378433.7657281701</v>
+        <v>378433.7657281702</v>
       </c>
       <c r="O4" t="n">
-        <v>378820.8283918877</v>
+        <v>378820.8283918878</v>
       </c>
       <c r="P4" t="n">
-        <v>378820.8283918877</v>
+        <v>378820.8283918878</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26491,10 @@
         <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
+        <v>47449.6772201635</v>
+      </c>
+      <c r="K5" t="n">
         <v>47449.67722016352</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47449.67722016351</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318405.7664989468</v>
+        <v>318401.3001147411</v>
       </c>
       <c r="C6" t="n">
-        <v>318405.7664989469</v>
+        <v>318401.3001147416</v>
       </c>
       <c r="D6" t="n">
-        <v>317772.9765546221</v>
+        <v>317769.7834717735</v>
       </c>
       <c r="E6" t="n">
-        <v>49176.17136725107</v>
+        <v>48866.21356697896</v>
       </c>
       <c r="F6" t="n">
-        <v>328302.2865459651</v>
+        <v>327992.3287456919</v>
       </c>
       <c r="G6" t="n">
-        <v>260710.7413512607</v>
+        <v>260710.7413512602</v>
       </c>
       <c r="H6" t="n">
         <v>356150.2667703938</v>
       </c>
       <c r="I6" t="n">
-        <v>356150.2667703936</v>
+        <v>356150.2667703938</v>
       </c>
       <c r="J6" t="n">
-        <v>203049.2769553091</v>
+        <v>203049.2769553086</v>
       </c>
       <c r="K6" t="n">
-        <v>346545.5599621877</v>
+        <v>346545.5599621887</v>
       </c>
       <c r="L6" t="n">
-        <v>250583.586254258</v>
+        <v>250583.5862542579</v>
       </c>
       <c r="M6" t="n">
-        <v>307709.3026320381</v>
+        <v>307709.3026320384</v>
       </c>
       <c r="N6" t="n">
-        <v>353906.6689243607</v>
+        <v>353906.6689243611</v>
       </c>
       <c r="O6" t="n">
         <v>278380.8591712137</v>
       </c>
       <c r="P6" t="n">
-        <v>350635.7740304576</v>
+        <v>350635.7740304575</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H2" t="n">
         <v>297.4476709269844</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758393</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
     </row>
     <row r="4">
@@ -26811,16 +26811,16 @@
         <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.958742689276</v>
+        <v>448.9587426892758</v>
       </c>
       <c r="K4" t="n">
         <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492624</v>
+        <v>445.7594930492625</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N4" t="n">
         <v>260.4608093700286</v>
@@ -26917,10 +26917,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>120.1271166407809</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540349</v>
+        <v>57.74670786540344</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1713840758395</v>
+        <v>101.1713840758394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700289</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003838</v>
+        <v>90.36388418003833</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.2994067739166</v>
+        <v>119.2994067739167</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D8" t="n">
-        <v>337.7721596422273</v>
+        <v>337.9020750954183</v>
       </c>
       <c r="E8" t="n">
         <v>371.4789120616362</v>
@@ -27871,7 +27871,7 @@
         <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
-        <v>256.8197240036773</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
         <v>111.3013968910535</v>
@@ -27944,16 +27944,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>146.144319312168</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>124.6379672828833</v>
+        <v>125.0193178399729</v>
       </c>
       <c r="I9" t="n">
-        <v>111.6565698077035</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>69.83566399273495</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>145.0317031582867</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
@@ -27992,7 +27992,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>266.7045835770116</v>
+        <v>263.5053339369981</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
@@ -28114,25 +28114,25 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K11" t="n">
-        <v>160.7168484597796</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>88.49454777923852</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P11" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530678</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R11" t="n">
         <v>178.1482641530678</v>
@@ -28172,7 +28172,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -28187,10 +28187,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,19 +28211,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7198007890777</v>
+        <v>38.46295079411091</v>
       </c>
       <c r="S12" t="n">
-        <v>3.092858000757104</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T12" t="n">
-        <v>135.0257335447395</v>
+        <v>26.47299028624312</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>48.73013617764146</v>
       </c>
       <c r="V12" t="n">
         <v>178.1482641530678</v>
@@ -28245,46 +28245,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I13" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2396075829089</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918997</v>
+        <v>109.9423655047993</v>
       </c>
       <c r="L13" t="n">
-        <v>32.15181624817887</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1482641530678</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N13" t="n">
-        <v>113.9939823758139</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1482641530678</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P13" t="n">
         <v>178.1482641530678</v>
@@ -28351,7 +28351,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="K14" t="n">
-        <v>160.7168484597793</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,10 +28360,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.05802066359289881</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P14" t="n">
         <v>178.1482641530678</v>
@@ -28409,7 +28409,7 @@
         <v>178.1482641530678</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28424,10 +28424,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,22 +28448,22 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>67.33373773641615</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530678</v>
+        <v>26.47299028624312</v>
       </c>
       <c r="U15" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530678</v>
+        <v>94.06254284591381</v>
       </c>
       <c r="W15" t="n">
         <v>178.1482641530678</v>
@@ -28482,13 +28482,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.1482641530678</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28497,34 +28497,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H16" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I16" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K16" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N16" t="n">
-        <v>178.1482641530678</v>
+        <v>134.9303506618661</v>
       </c>
       <c r="O16" t="n">
         <v>178.1482641530678</v>
       </c>
       <c r="P16" t="n">
-        <v>69.46631154762079</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q16" t="n">
         <v>178.1482641530678</v>
@@ -28561,37 +28561,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I17" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="J17" t="n">
-        <v>100.3570851902702</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300951</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108874</v>
+        <v>203.589905670336</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2096703566691</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269844</v>
+        <v>296.9457798188704</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28646,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
@@ -28661,10 +28661,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,22 +28688,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>26.47299028624312</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>130.5437160873594</v>
+        <v>183.4627282498659</v>
       </c>
       <c r="V18" t="n">
-        <v>52.15098759615509</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>78.20665025776444</v>
       </c>
       <c r="X18" t="n">
         <v>28.81498112022345</v>
@@ -28743,25 +28743,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J19" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777679</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28770,7 +28770,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S19" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T19" t="n">
         <v>223.761558450323</v>
@@ -28822,31 +28822,31 @@
         <v>241.009769215476</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2795522838412</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K20" t="n">
-        <v>132.8687839165946</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>5.656213468493576</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108874</v>
+        <v>15.09197235108878</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71173703742195</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S20" t="n">
         <v>297.4476709269844</v>
@@ -28855,7 +28855,7 @@
         <v>297.4476709269844</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
         <v>297.4476709269844</v>
@@ -28898,10 +28898,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390259</v>
+        <v>16.28800845796711</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,10 +28922,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.5907913200043</v>
@@ -28934,7 +28934,7 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>48.73013617764147</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V21" t="n">
         <v>52.15098759615509</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022345</v>
       </c>
       <c r="Y21" t="n">
-        <v>45.60786754485127</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28980,25 +28980,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J22" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777679</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29007,7 +29007,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S22" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T22" t="n">
         <v>223.761558450323</v>
@@ -29056,40 +29056,40 @@
         <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>241.009769215476</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78161896459403</v>
+        <v>76.78161896459406</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300951</v>
+        <v>6.727192146300986</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>183.5799044724664</v>
+        <v>164.4917461140583</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2096703566691</v>
+        <v>89.71173703742198</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269844</v>
+        <v>194.8815453823669</v>
       </c>
       <c r="S23" t="n">
         <v>227.5169945584482</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4658813998192</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U23" t="n">
         <v>297.4476709269844</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>152.3107713933117</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29135,10 +29135,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5907913200043</v>
+        <v>3.092858000757158</v>
       </c>
       <c r="T24" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>48.73013617764147</v>
+        <v>48.73013617764146</v>
       </c>
       <c r="V24" t="n">
-        <v>52.15098759615509</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>78.20665025776444</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>103.7591051557802</v>
+        <v>28.81498112022345</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29217,25 +29217,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J25" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777679</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29244,7 +29244,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S25" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T25" t="n">
         <v>223.761558450323</v>
@@ -29372,10 +29372,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,13 +29396,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>122.9894063555754</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.484750524001</v>
@@ -29411,16 +29411,16 @@
         <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>213.484750524001</v>
       </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.16356477049399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29433,16 +29433,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.484750524001</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>213.484750524001</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>213.484750524001</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>184.3601331428333</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
         <v>168.7007749271525</v>
@@ -29454,28 +29454,28 @@
         <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817887</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O28" t="n">
-        <v>37.47888399777679</v>
+        <v>37.4788839977768</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024888</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.2169859636892</v>
+        <v>178.4555817493493</v>
       </c>
       <c r="R28" t="n">
         <v>203.4299611556341</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>108.1491094332365</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29609,10 +29609,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390259</v>
+        <v>52.4751703839026</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161048</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
@@ -29645,13 +29645,13 @@
         <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
-        <v>10.16356477049428</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>213.484750524001</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.484750524001</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29691,22 +29691,22 @@
         <v>164.852968067965</v>
       </c>
       <c r="J31" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
-        <v>108.7275287178871</v>
+        <v>67.02998013918999</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817889</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889346</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928135</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777679</v>
+        <v>115.0442624355064</v>
       </c>
       <c r="P31" t="n">
         <v>213.484750524001</v>
@@ -29782,7 +29782,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="N32" t="n">
-        <v>194.195335640751</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="O32" t="n">
         <v>214.3124603908652</v>
@@ -29791,7 +29791,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407516</v>
       </c>
       <c r="R32" t="n">
         <v>214.3124603908652</v>
@@ -29828,16 +29828,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>106.7848032820749</v>
       </c>
       <c r="F33" t="n">
-        <v>42.08453155797828</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29846,10 +29846,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,19 +29870,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>214.3124603908652</v>
@@ -29907,7 +29907,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>210.9564567815448</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29928,25 +29928,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
+        <v>67.02998013919</v>
+      </c>
+      <c r="L34" t="n">
         <v>214.3124603908652</v>
       </c>
-      <c r="L34" t="n">
-        <v>32.15181624817887</v>
-      </c>
       <c r="M34" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N34" t="n">
-        <v>95.89759706986482</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O34" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024886</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2169859636892</v>
@@ -30004,31 +30004,31 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I35" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562687</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146300951</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2680391874429</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>178.7821234236175</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>168.2352050461296</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0591682562687</v>
+        <v>221.6131332193948</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.71173703742195</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R35" t="n">
         <v>272.0591682562687</v>
@@ -30040,7 +30040,7 @@
         <v>272.0591682562687</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V35" t="n">
         <v>272.0591682562687</v>
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>156.3089144234755</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30083,10 +30083,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890777</v>
+        <v>54.55570069558128</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>6.243774206982948</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30162,28 +30162,28 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I37" t="n">
-        <v>200.4094700018121</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J37" t="n">
-        <v>120.2396075829089</v>
+        <v>155.796109516756</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P37" t="n">
-        <v>58.47859890024886</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30192,7 +30192,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S37" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T37" t="n">
         <v>223.761558450323</v>
@@ -30247,37 +30247,37 @@
         <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
-        <v>24.78041951846513</v>
+        <v>6.727192146301029</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2680391874426</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3720284248849</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0591682562687</v>
+        <v>252.557605929552</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.71173703742195</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R38" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4658813998192</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30305,25 +30305,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890777</v>
@@ -30353,16 +30353,16 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>203.6768415620183</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>239.9949627172877</v>
+        <v>6.243774206982948</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30396,31 +30396,31 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H40" t="n">
-        <v>201.3808995885136</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I40" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J40" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013918997</v>
+        <v>102.586482073037</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O40" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P40" t="n">
-        <v>58.47859890024886</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30429,7 +30429,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S40" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T40" t="n">
         <v>223.761558450323</v>
@@ -30478,28 +30478,28 @@
         <v>241.009769215476</v>
       </c>
       <c r="I41" t="n">
-        <v>241.009769215476</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="K41" t="n">
+        <v>6.727192146301029</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>47.96910033376474</v>
+      </c>
+      <c r="N41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="L41" t="n">
-        <v>241.009769215476</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="P41" t="n">
-        <v>54.69629248006476</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Q41" t="n">
         <v>241.009769215476</v>
@@ -30539,7 +30539,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>80.72720683498447</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30548,7 +30548,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7446044746268</v>
@@ -30557,10 +30557,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390262</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,28 +30581,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161073</v>
       </c>
       <c r="R42" t="n">
         <v>134.7198007890777</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280694968886</v>
+        <v>160.5016378735295</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>204.4457085795033</v>
       </c>
       <c r="G43" t="n">
         <v>168.7007749271525</v>
@@ -30639,34 +30639,34 @@
         <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
-        <v>223.3382420038076</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817887</v>
+        <v>32.15181624817892</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928138</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777683</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024886</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4299611556341</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S43" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T43" t="n">
         <v>223.761558450323</v>
@@ -30718,7 +30718,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>241.009769215476</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K44" t="n">
         <v>241.009769215476</v>
@@ -30727,19 +30727,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="N44" t="n">
-        <v>241.009769215476</v>
+        <v>147.7565935091823</v>
       </c>
       <c r="O44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="P44" t="n">
-        <v>54.69629248006499</v>
+        <v>241.009769215476</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
@@ -30748,7 +30748,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
-        <v>241.009769215476</v>
+        <v>222.4658813998193</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30788,16 +30788,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
-        <v>107.3634103439873</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390259</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161062</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
@@ -30827,7 +30827,7 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T45" t="n">
-        <v>6.162906117037068</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280694968886</v>
@@ -30836,13 +30836,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.009769215476</v>
+        <v>196.0768324061381</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30876,37 +30876,37 @@
         <v>164.852968067965</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2396075829089</v>
+        <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>170.1286145600886</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817887</v>
+        <v>32.1518162481789</v>
       </c>
       <c r="M46" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024886</v>
+        <v>58.47859890024889</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2169859636892</v>
+        <v>175.4876015595929</v>
       </c>
       <c r="R46" t="n">
-        <v>203.4299611556341</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661805</v>
+        <v>235.4380443661806</v>
       </c>
       <c r="T46" t="n">
-        <v>223.761558450323</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U46" t="n">
         <v>241.009769215476</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H11" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318172</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000173</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L12" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134024</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P12" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R12" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S12" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309192</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542655</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S13" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318172</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000173</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L15" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134024</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P15" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R15" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S15" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309192</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542655</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S16" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318172</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000173</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L18" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134024</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P18" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R18" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S18" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309192</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542655</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S19" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318172</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000173</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L21" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134024</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P21" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R21" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S21" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309192</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542655</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S22" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H23" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318172</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000173</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L24" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134024</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P24" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R24" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309192</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542655</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S25" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H26" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318172</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000173</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L27" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134024</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P27" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R27" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S27" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309192</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542655</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S28" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631733</v>
       </c>
       <c r="H29" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217849</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501025</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645941</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246054</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727851</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032865</v>
+        <v>71.4163207803286</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401898</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556016</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521931</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178816</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318172</v>
+        <v>25.5485706731817</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610821</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168792</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705386</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650131</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122627</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729619</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884583</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000173</v>
+        <v>35.1398759200017</v>
       </c>
       <c r="L30" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447577</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133248</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427549</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134024</v>
+        <v>51.7758874713402</v>
       </c>
       <c r="P30" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862167</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795501</v>
       </c>
       <c r="R30" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922249</v>
       </c>
       <c r="S30" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935657</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971358</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375087</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924973</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773295</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014375</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602956</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752832</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600456</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786392</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309192</v>
+        <v>27.9183263630919</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837954</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221257</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545175</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542655</v>
+        <v>8.20317484654265</v>
       </c>
       <c r="S31" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629248</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679428</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590774</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H32" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I32" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168793</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L33" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P33" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R33" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S33" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752833</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S34" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H35" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I35" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168793</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L36" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P36" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R36" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S36" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752833</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S37" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H38" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I38" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168793</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L39" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P39" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R39" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S39" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752833</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S40" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631729</v>
       </c>
       <c r="H41" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I41" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246058</v>
+        <v>51.7361987824605</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032853</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401891</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556011</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521927</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178812</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318168</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610812</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168793</v>
+        <v>1.78041300016879</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.2176139204650129</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122625</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729613</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000167</v>
       </c>
       <c r="L42" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447573</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427545</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P42" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795503</v>
+        <v>27.77822605795498</v>
       </c>
       <c r="R42" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922247</v>
       </c>
       <c r="S42" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935654</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971351</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924971</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752833</v>
+        <v>21.1962342375283</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786394</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542643</v>
       </c>
       <c r="S43" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679422</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590766</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631736</v>
+        <v>0.4067191319631731</v>
       </c>
       <c r="H44" t="n">
-        <v>4.165312310217852</v>
+        <v>4.165312310217847</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645939</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246058</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727857</v>
+        <v>64.18332941727849</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032856</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401894</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178819</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610815</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168793</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705388</v>
+        <v>0.03253753055705384</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650133</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729615</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884584</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000169</v>
       </c>
       <c r="L45" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133245</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134017</v>
       </c>
       <c r="P45" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862165</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795503</v>
+        <v>27.778226057955</v>
       </c>
       <c r="R45" t="n">
-        <v>13.5111520092225</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S45" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971354</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375088</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014379</v>
+        <v>5.486474402014372</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602957</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600458</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786394</v>
+        <v>28.5983307478639</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309192</v>
+        <v>27.91832636309189</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221259</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S46" t="n">
-        <v>3.17943513562925</v>
+        <v>3.179435135629246</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679425</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35152,7 +35152,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>3.069987028295762</v>
       </c>
       <c r="P9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3666451884737</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
-        <v>153.9896563134787</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.192770182586</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641141</v>
+        <v>170.1732337256499</v>
       </c>
       <c r="N11" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936138</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P11" t="n">
-        <v>163.056291801979</v>
+        <v>163.0562918019791</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43652711564582</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35504,7 +35504,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,46 +35541,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.5313434880997363</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.96561390235712</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.47212294084284</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.22138193462118</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.44748922591536</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.32386649840125</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.29529608510279</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90865657015887</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>42.9123853656093</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>145.996447904889</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541743</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>97.47382500653261</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>140.669380155291</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>119.6696652528189</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884738</v>
+        <v>101.3666451884737</v>
       </c>
       <c r="K14" t="n">
-        <v>153.9896563134783</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.192770182586</v>
+        <v>47.19277018258595</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514382</v>
+        <v>76.14680160873668</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936138</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P14" t="n">
-        <v>163.0562918019791</v>
+        <v>163.056291801979</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564584</v>
+        <v>88.43652711564579</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35735,13 +35735,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N15" t="n">
-        <v>188.497933319247</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O15" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,13 +35778,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5313434880997079</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.96561390235706</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35793,10 +35793,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.447489225915303</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.32386649840119</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35814,16 +35814,16 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6281067837864</v>
+        <v>118.4101932925848</v>
       </c>
       <c r="O16" t="n">
         <v>140.669380155291</v>
       </c>
       <c r="P16" t="n">
-        <v>10.98771264737192</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937859</v>
+        <v>50.93127818937855</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,40 +35881,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>23.57546622567616</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.192770182586</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514378</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936133</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93067636853624</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716516</v>
+        <v>74.47989841905118</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543463</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -35978,7 +35978,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181817</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="K20" t="n">
-        <v>126.1415917702936</v>
-      </c>
-      <c r="L20" t="n">
-        <v>47.192770182586</v>
-      </c>
       <c r="M20" t="n">
-        <v>81.67868594641141</v>
+        <v>87.33489941490494</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514382</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936133</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S20" t="n">
         <v>69.93067636853624</v>
@@ -36151,7 +36151,7 @@
         <v>74.98178952716516</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
@@ -36215,7 +36215,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.43790171150836</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.192770182586</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641136</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514382</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936133</v>
       </c>
       <c r="P23" t="n">
-        <v>168.4879321213776</v>
+        <v>149.3997737629695</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446176</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
@@ -36452,7 +36452,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.703131559407</v>
+        <v>136.7031315594069</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777001</v>
+        <v>206.7575583777</v>
       </c>
       <c r="L26" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065869</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N26" t="n">
         <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933624</v>
+        <v>248.0510481933623</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729123</v>
+        <v>198.3927781729122</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7730134865791</v>
+        <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163419</v>
+        <v>18.60320514163411</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36689,7 +36689,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36729,16 +36729,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.02756955202867</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.30210027329031</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.80860931177602</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>45.4332509243867</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>181.3329342758221</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>51.23859578566005</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K29" t="n">
         <v>206.7575583777</v>
@@ -36844,7 +36844,7 @@
         <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P29" t="n">
         <v>198.3927781729122</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163413</v>
+        <v>18.60320514163417</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543471</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36926,7 +36926,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181805</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.86782985903287</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>41.69754857869717</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>77.56537843772959</v>
       </c>
       <c r="P31" t="n">
         <v>155.0061516237521</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262712</v>
+        <v>137.5308414262711</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445643</v>
+        <v>207.5852682445642</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734512</v>
+        <v>261.5052305734511</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372766</v>
+        <v>295.9911463372765</v>
       </c>
       <c r="N32" t="n">
-        <v>270.2841165858948</v>
+        <v>290.4012413360089</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602266</v>
+        <v>248.8787580602265</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397765</v>
+        <v>199.2204880397764</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534433</v>
+        <v>104.4835986033296</v>
       </c>
       <c r="R32" t="n">
-        <v>19.4309150084984</v>
+        <v>19.43091500849836</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L33" t="n">
         <v>118.5181001296708</v>
@@ -37160,10 +37160,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>44.49927580957242</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37227,16 +37227,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>147.2824802516753</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>182.1606441426863</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>79.37743970058348</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37303,40 +37303,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.192770182586</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641141</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514371</v>
       </c>
       <c r="O35" t="n">
-        <v>202.801502715491</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P35" t="n">
-        <v>256.96719590518</v>
+        <v>206.521160868306</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.1776228739019</v>
+        <v>77.17762287390185</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54217369782054</v>
+        <v>44.54217369782053</v>
       </c>
       <c r="T35" t="n">
         <v>49.59328685644947</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L36" t="n">
         <v>118.5181001296708</v>
@@ -37397,10 +37397,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37458,10 +37458,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04939904079268</v>
+        <v>31.04939904079265</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2775492916747</v>
+        <v>195.2775492916746</v>
       </c>
       <c r="K38" t="n">
-        <v>18.05322737216418</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>47.1927701825859</v>
+      </c>
+      <c r="M38" t="n">
+        <v>81.67868594641129</v>
+      </c>
+      <c r="N38" t="n">
         <v>260.4608093700286</v>
       </c>
-      <c r="M38" t="n">
-        <v>81.67868594641141</v>
-      </c>
-      <c r="N38" t="n">
-        <v>76.08878094514382</v>
-      </c>
       <c r="O38" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936128</v>
       </c>
       <c r="P38" t="n">
-        <v>256.96719590518</v>
+        <v>237.4656335784631</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.1776228739019</v>
+        <v>77.17762287390185</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.54217369782053</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L39" t="n">
         <v>118.5181001296708</v>
@@ -37634,10 +37634,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37692,16 +37692,16 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.228150250882</v>
+        <v>164.2281502508819</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2825770691751</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2025393980621</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M41" t="n">
-        <v>81.67868594641141</v>
+        <v>129.647786280176</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514382</v>
+        <v>317.0985501606198</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5760668848374</v>
+        <v>275.5760668848373</v>
       </c>
       <c r="P41" t="n">
-        <v>39.60432012897601</v>
+        <v>225.9177968643872</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2980321780541</v>
+        <v>151.298032178054</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310921</v>
+        <v>46.12822383310917</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702786</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54388781565679</v>
+        <v>18.54388781565678</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L42" t="n">
         <v>118.5181001296708</v>
@@ -37871,10 +37871,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>65.51882636105668</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.57980805984192</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.228150250882</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>234.2825770691751</v>
+        <v>234.282577069175</v>
       </c>
       <c r="L44" t="n">
-        <v>47.192770182586</v>
+        <v>47.19277018258592</v>
       </c>
       <c r="M44" t="n">
-        <v>81.67868594641141</v>
+        <v>322.6884551618874</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606199</v>
+        <v>223.845374454326</v>
       </c>
       <c r="O44" t="n">
         <v>275.5760668848374</v>
       </c>
       <c r="P44" t="n">
-        <v>39.60432012897625</v>
+        <v>225.9177968643872</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310921</v>
+        <v>46.12822383310917</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702786</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54388781565679</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543469</v>
       </c>
       <c r="L45" t="n">
         <v>118.5181001296708</v>
@@ -38108,10 +38108,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181808</v>
+        <v>84.46981137181804</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>48.27061559590364</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.57980805984192</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.24821076515303</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
